--- a/Arquivos para organizar no notebook/Contas - 10-2022.xlsx
+++ b/Arquivos para organizar no notebook/Contas - 10-2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuel\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos para organizar no notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612A121-5348-48E7-BD00-F8A2DF9D9334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF3F80-97F3-48CA-9A5E-C05F8D35E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,9 +679,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -5407,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E908C261-51F7-40A2-8878-B0FBD7113C71}">
-  <dimension ref="C3:O31"/>
+  <dimension ref="C3:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="T14" sqref="T14:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,7 +5427,7 @@
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="55" t="s">
         <v>22</v>
       </c>
@@ -5437,7 +5438,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -5452,7 +5453,7 @@
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="56" t="s">
         <v>23</v>
       </c>
@@ -5464,7 +5465,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="57" t="s">
         <v>25</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
@@ -5533,7 +5534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="40"/>
@@ -5557,7 +5558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="34"/>
       <c r="D11" s="36"/>
       <c r="E11" s="38"/>
@@ -5611,7 +5612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="36"/>
       <c r="E12" s="38"/>
@@ -5635,7 +5636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
@@ -5658,7 +5659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
@@ -5681,7 +5682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
@@ -5706,7 +5707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
@@ -5730,6 +5731,7 @@
       <c r="O16" s="41" t="s">
         <v>69</v>
       </c>
+      <c r="T16" s="60"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
@@ -6075,7 +6077,7 @@
   <dimension ref="C3:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6394,7 +6396,7 @@
         <v>37</v>
       </c>
       <c r="I17" s="38">
-        <v>68.989999999999995</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="L17" s="31">
         <v>44756</v>
@@ -6444,7 +6446,7 @@
         <v>68</v>
       </c>
       <c r="I19" s="38">
-        <v>33.51</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="L19" s="31">
         <v>44760</v>
@@ -6469,7 +6471,7 @@
         <v>82</v>
       </c>
       <c r="I20" s="38">
-        <v>78.77</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="L20" s="31">
         <v>44761</v>
@@ -6587,7 +6589,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="38">
-        <v>179</v>
+        <v>275.64999999999998</v>
       </c>
       <c r="L25" s="31">
         <v>44767</v>
@@ -6627,7 +6629,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="39">
         <f>SUM(I6:I26)</f>
-        <v>2917.4999999999995</v>
+        <v>3014.3999999999996</v>
       </c>
       <c r="L27" s="31">
         <v>44769</v>
@@ -6726,7 +6728,7 @@
       </c>
       <c r="I32" s="39">
         <f>(I27+I30)</f>
-        <v>2917.4999999999995</v>
+        <v>3014.3999999999996</v>
       </c>
       <c r="L32" s="28" t="s">
         <v>47</v>
@@ -6749,7 +6751,7 @@
       </c>
       <c r="I33" s="39">
         <f>I31-I32</f>
-        <v>682.50000000000045</v>
+        <v>585.60000000000036</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos para organizar no notebook/Contas - 10-2022.xlsx
+++ b/Arquivos para organizar no notebook/Contas - 10-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos para organizar no notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF3F80-97F3-48CA-9A5E-C05F8D35E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD742BA4-3C8B-4685-9CCC-7F3115D5CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Setembro" sheetId="7" r:id="rId7"/>
     <sheet name="Outubro" sheetId="8" r:id="rId8"/>
     <sheet name="Novembro" sheetId="9" r:id="rId9"/>
+    <sheet name="Dezembro" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="98">
   <si>
     <t>Cartões</t>
   </si>
@@ -325,6 +326,15 @@
   </si>
   <si>
     <t>Mercado Livre</t>
+  </si>
+  <si>
+    <t>(10/10)</t>
+  </si>
+  <si>
+    <t>(02/24)</t>
+  </si>
+  <si>
+    <t>Essencia Z</t>
   </si>
 </sst>
 </file>
@@ -741,6 +751,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,7 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1152,19 +1162,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="46" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1195,10 +1205,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1443,13 +1453,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="51">
+      <c r="E15" s="52">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1678,6 +1688,537 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1703C4A5-A417-495B-BBF7-93EDD3517250}">
+  <dimension ref="B3:N34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="K4" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="F5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
+      <c r="L6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>3800</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="43">
+        <v>200</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="43">
+        <v>200</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="40"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="43">
+        <v>200</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="44">
+        <v>65</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="43">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="43">
+        <v>13.95</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="45"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="43">
+        <v>300</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="43">
+        <v>200</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="38">
+        <v>49.75</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="38">
+        <v>12.99</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="38">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="38">
+        <v>14.48</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="38">
+        <v>15.96</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="38">
+        <v>33</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="38"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="39">
+        <f>SUM(H6:H27)</f>
+        <v>2871.7499999999995</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="H29" s="40"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="H30" s="40"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="G31" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="39">
+        <f>SUM(M33)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="39">
+        <f>D7</f>
+        <v>3800</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="39">
+        <f>(H28+H31)</f>
+        <v>2871.7499999999995</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="39">
+        <f>SUM(L7:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="27">
+        <f>SUM(M7:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="39">
+        <f>H32-H33</f>
+        <v>928.25000000000045</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -1707,52 +2248,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="K3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="E4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -2292,52 +2833,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="K3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="E4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -2907,52 +3448,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="K4" s="55" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="K4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="E5" s="56" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="E5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -3481,52 +4022,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="L4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="F5" s="56" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="F5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -4057,52 +4598,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="L4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -4727,52 +5268,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="L4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -5410,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E908C261-51F7-40A2-8878-B0FBD7113C71}">
   <dimension ref="C3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:U19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5428,52 +5969,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="L4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -5519,7 +6060,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="43">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L8" s="31">
         <v>44746</v>
@@ -5731,7 +6272,7 @@
       <c r="O16" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="T16" s="60"/>
+      <c r="T16" s="46"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
@@ -5933,7 +6474,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="39">
         <f>SUM(I6:I24)</f>
-        <v>2736.5200000000004</v>
+        <v>2747.5200000000004</v>
       </c>
       <c r="L25" s="31">
         <v>44769</v>
@@ -6032,7 +6573,7 @@
       </c>
       <c r="I30" s="39">
         <f>(I25+I28)</f>
-        <v>2736.5200000000004</v>
+        <v>2747.5200000000004</v>
       </c>
       <c r="L30" s="28" t="s">
         <v>47</v>
@@ -6055,7 +6596,7 @@
       </c>
       <c r="I31" s="39">
         <f>I29-I30</f>
-        <v>1010.1599999999994</v>
+        <v>999.1599999999994</v>
       </c>
     </row>
   </sheetData>
@@ -6074,10 +6615,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB5E7D-CF11-4FB8-8044-0598269B9C9C}">
-  <dimension ref="C3:O33"/>
+  <dimension ref="C3:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,52 +6635,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="L4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -6165,18 +6706,10 @@
       <c r="I7" s="43">
         <v>200</v>
       </c>
-      <c r="L7" s="31">
-        <v>44743</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
@@ -6187,18 +6720,10 @@
       <c r="I8" s="43">
         <v>200</v>
       </c>
-      <c r="L8" s="31">
-        <v>44746</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
@@ -6211,18 +6736,10 @@
       <c r="I9" s="43">
         <v>200</v>
       </c>
-      <c r="L9" s="31">
-        <v>44747</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -6237,18 +6754,10 @@
       <c r="I10" s="44">
         <v>65</v>
       </c>
-      <c r="L10" s="31">
-        <v>44748</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="34"/>
@@ -6262,18 +6771,10 @@
         <v>1000</v>
       </c>
       <c r="J11" s="25"/>
-      <c r="L11" s="31">
-        <v>44749</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
@@ -6286,18 +6787,10 @@
       <c r="I12" s="43">
         <v>13.95</v>
       </c>
-      <c r="L12" s="31">
-        <v>44750</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
@@ -6323,20 +6816,12 @@
         <v>62</v>
       </c>
       <c r="I14" s="43">
-        <v>100</v>
-      </c>
-      <c r="L14" s="31">
-        <v>44753</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
@@ -6348,18 +6833,10 @@
       <c r="I15" s="43">
         <v>97.14</v>
       </c>
-      <c r="L15" s="31">
-        <v>44754</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
@@ -6373,18 +6850,10 @@
       <c r="I16" s="38">
         <v>49.75</v>
       </c>
-      <c r="L16" s="31">
-        <v>44755</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
@@ -6398,18 +6867,10 @@
       <c r="I17" s="38">
         <v>69.150000000000006</v>
       </c>
-      <c r="L17" s="31">
-        <v>44756</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
@@ -6423,18 +6884,10 @@
       <c r="I18" s="38">
         <v>12.99</v>
       </c>
-      <c r="L18" s="31">
-        <v>44757</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
@@ -6448,18 +6901,10 @@
       <c r="I19" s="38">
         <v>33.520000000000003</v>
       </c>
-      <c r="L19" s="31">
-        <v>44760</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
@@ -6473,18 +6918,10 @@
       <c r="I20" s="38">
         <v>78.849999999999994</v>
       </c>
-      <c r="L20" s="31">
-        <v>44761</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
@@ -6498,18 +6935,10 @@
       <c r="I21" s="38">
         <v>14.48</v>
       </c>
-      <c r="L21" s="31">
-        <v>44762</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
@@ -6524,18 +6953,10 @@
         <v>15.96</v>
       </c>
       <c r="J22" s="25"/>
-      <c r="L22" s="31">
-        <v>44763</v>
-      </c>
-      <c r="M22" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
@@ -6544,10 +6965,10 @@
         <v>46</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I23" s="38">
-        <v>30.71</v>
+        <v>33</v>
       </c>
       <c r="J23" s="25"/>
       <c r="L23" s="31"/>
@@ -6559,199 +6980,175 @@
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" s="38">
-        <v>257.25</v>
+        <v>30.71</v>
       </c>
       <c r="J24" s="25"/>
-      <c r="L24" s="31">
-        <v>44764</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N24" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" s="24" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I25" s="38">
-        <v>275.64999999999998</v>
-      </c>
-      <c r="L25" s="31">
-        <v>44767</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="41" t="s">
-        <v>69</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="38"/>
-      <c r="L26" s="31">
-        <v>44768</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="G26" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="39">
-        <f>SUM(I6:I26)</f>
-        <v>3014.3999999999996</v>
-      </c>
-      <c r="L27" s="31">
-        <v>44769</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N27" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="38">
+        <v>275.64999999999998</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="I28" s="40"/>
-      <c r="L28" s="31">
-        <v>44770</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O28" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="38"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="I29" s="40"/>
-      <c r="L29" s="31">
-        <v>44771</v>
-      </c>
-      <c r="M29" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O29" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="39">
+        <f>SUM(I6:I28)</f>
+        <v>2980.4</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="H30" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="39">
-        <f>SUM(N32)</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="40"/>
       <c r="L30" s="31"/>
-      <c r="M30" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O30" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
-      <c r="H31" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="39">
-        <f>E7</f>
-        <v>3600</v>
-      </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" s="41" t="s">
-        <v>69</v>
-      </c>
+      <c r="I31" s="40"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="H32" s="28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I32" s="39">
-        <f>(I27+I30)</f>
-        <v>3014.3999999999996</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="39">
-        <f>SUM(M7:M31)</f>
+        <f>SUM(N34)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="27">
-        <f>SUM(N7:N31)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="31"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="H33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="39">
+        <f>E7</f>
+        <v>3600</v>
+      </c>
+      <c r="L33" s="34"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="H34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="39">
+        <f>(I29+I32)</f>
+        <v>2980.4</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="39">
+        <f>SUM(M7:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="27">
+        <f>SUM(N7:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="H35" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="39">
-        <f>I31-I32</f>
-        <v>585.60000000000036</v>
+      <c r="I35" s="39">
+        <f>I33-I34</f>
+        <v>619.59999999999991</v>
       </c>
     </row>
   </sheetData>
